--- a/Features.xlsx
+++ b/Features.xlsx
@@ -417,22 +417,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>9.932382331815054</v>
+        <v>14.69155129706278</v>
       </c>
       <c r="B2">
-        <v>17.69498335933892</v>
+        <v>24.31572611996367</v>
       </c>
       <c r="C2">
-        <v>93.65548628813879</v>
+        <v>99.54459683096506</v>
       </c>
       <c r="D2">
-        <v>897.0716504787197</v>
+        <v>896.1768751776472</v>
       </c>
       <c r="E2">
-        <v>897.0716504787197</v>
+        <v>896.1768751776472</v>
       </c>
       <c r="F2">
-        <v>-75.96050292879987</v>
+        <v>-75.22887071100139</v>
       </c>
     </row>
   </sheetData>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -417,22 +417,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>14.69155129706278</v>
+        <v>11.93874715048297</v>
       </c>
       <c r="B2">
-        <v>24.31572611996367</v>
+        <v>40.27019313563444</v>
       </c>
       <c r="C2">
-        <v>99.54459683096506</v>
+        <v>115.6900239250543</v>
       </c>
       <c r="D2">
-        <v>896.1768751776472</v>
+        <v>509.022428215445</v>
       </c>
       <c r="E2">
-        <v>896.1768751776472</v>
+        <v>588.2204540018211</v>
       </c>
       <c r="F2">
-        <v>-75.22887071100139</v>
+        <v>-75.41983078941989</v>
       </c>
     </row>
   </sheetData>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -417,22 +417,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>21.22975512766709</v>
+        <v>168.7911453876235</v>
       </c>
       <c r="B2">
-        <v>45.86932838896811</v>
+        <v>47.71442880848885</v>
       </c>
       <c r="C2">
-        <v>122.6929111814301</v>
+        <v>124.0691884665542</v>
       </c>
       <c r="D2">
-        <v>574.2600155318069</v>
+        <v>422.0409123677455</v>
       </c>
       <c r="E2">
-        <v>670.138546026159</v>
+        <v>525.9619767606127</v>
       </c>
       <c r="F2">
-        <v>-76.82358279246196</v>
+        <v>-76.35475965806535</v>
       </c>
     </row>
   </sheetData>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -417,22 +417,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>11.93874715048297</v>
+        <v>11.41367662743975</v>
       </c>
       <c r="B2">
-        <v>40.27019313563444</v>
+        <v>5.606852462322909</v>
       </c>
       <c r="C2">
-        <v>115.6900239250543</v>
+        <v>74.46483838348991</v>
       </c>
       <c r="D2">
-        <v>509.022428215445</v>
+        <v>762.8961298759095</v>
       </c>
       <c r="E2">
-        <v>588.2204540018211</v>
+        <v>751.6720578321765</v>
       </c>
       <c r="F2">
-        <v>-75.41983078941989</v>
+        <v>-68.857985921167</v>
       </c>
     </row>
   </sheetData>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -417,22 +417,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>168.7911453876235</v>
+        <v>151.1232026064654</v>
       </c>
       <c r="B2">
-        <v>47.71442880848885</v>
+        <v>30.71896782473602</v>
       </c>
       <c r="C2">
-        <v>124.0691884665542</v>
+        <v>107.5903324756292</v>
       </c>
       <c r="D2">
-        <v>422.0409123677455</v>
+        <v>264.707947279072</v>
       </c>
       <c r="E2">
-        <v>525.9619767606127</v>
+        <v>328.0523150109293</v>
       </c>
       <c r="F2">
-        <v>-76.35475965806535</v>
+        <v>-76.87136465089318</v>
       </c>
     </row>
   </sheetData>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -417,22 +417,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>151.1232026064654</v>
+        <v>50.69165037331061</v>
       </c>
       <c r="B2">
-        <v>30.71896782473602</v>
+        <v>46.92978314000325</v>
       </c>
       <c r="C2">
-        <v>107.5903324756292</v>
+        <v>125.2758415991067</v>
       </c>
       <c r="D2">
-        <v>264.707947279072</v>
+        <v>618.6641476410805</v>
       </c>
       <c r="E2">
-        <v>328.0523150109293</v>
+        <v>737.1693401699304</v>
       </c>
       <c r="F2">
-        <v>-76.87136465089318</v>
+        <v>-78.34605845910342</v>
       </c>
     </row>
   </sheetData>
